--- a/stock/data/KB금융.xlsx
+++ b/stock/data/KB금융.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3825"/>
+  <dimension ref="A1:G3858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88420,10 +88420,769 @@
         <v>69500</v>
       </c>
       <c r="F3825" t="n">
-        <v>1002610</v>
+        <v>1004163</v>
       </c>
       <c r="G3825" t="n">
         <v>-1.137980085348506</v>
+      </c>
+    </row>
+    <row r="3826">
+      <c r="A3826" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3826" t="n">
+        <v>69100</v>
+      </c>
+      <c r="C3826" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D3826" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E3826" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F3826" t="n">
+        <v>739530</v>
+      </c>
+      <c r="G3826" t="n">
+        <v>-1.58273381294964</v>
+      </c>
+    </row>
+    <row r="3827">
+      <c r="A3827" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3827" t="n">
+        <v>67500</v>
+      </c>
+      <c r="C3827" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D3827" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E3827" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F3827" t="n">
+        <v>1333450</v>
+      </c>
+      <c r="G3827" t="n">
+        <v>0.7309941520467835</v>
+      </c>
+    </row>
+    <row r="3828">
+      <c r="A3828" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3828" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C3828" t="n">
+        <v>69300</v>
+      </c>
+      <c r="D3828" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E3828" t="n">
+        <v>67300</v>
+      </c>
+      <c r="F3828" t="n">
+        <v>1515589</v>
+      </c>
+      <c r="G3828" t="n">
+        <v>-2.322206095791001</v>
+      </c>
+    </row>
+    <row r="3829">
+      <c r="A3829" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3829" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C3829" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D3829" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E3829" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F3829" t="n">
+        <v>1134908</v>
+      </c>
+      <c r="G3829" t="n">
+        <v>3.268945022288262</v>
+      </c>
+    </row>
+    <row r="3830">
+      <c r="A3830" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3830" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C3830" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D3830" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E3830" t="n">
+        <v>69100</v>
+      </c>
+      <c r="F3830" t="n">
+        <v>859793</v>
+      </c>
+      <c r="G3830" t="n">
+        <v>-0.5755395683453237</v>
+      </c>
+    </row>
+    <row r="3831">
+      <c r="A3831" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3831" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C3831" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D3831" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E3831" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F3831" t="n">
+        <v>813994</v>
+      </c>
+      <c r="G3831" t="n">
+        <v>0.2894356005788712</v>
+      </c>
+    </row>
+    <row r="3832">
+      <c r="A3832" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3832" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C3832" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D3832" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E3832" t="n">
+        <v>69100</v>
+      </c>
+      <c r="F3832" t="n">
+        <v>718818</v>
+      </c>
+      <c r="G3832" t="n">
+        <v>-0.2886002886002886</v>
+      </c>
+    </row>
+    <row r="3833">
+      <c r="A3833" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3833" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C3833" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D3833" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E3833" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F3833" t="n">
+        <v>2899225</v>
+      </c>
+      <c r="G3833" t="n">
+        <v>-1.157742402315485</v>
+      </c>
+    </row>
+    <row r="3834">
+      <c r="A3834" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3834" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C3834" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D3834" t="n">
+        <v>65400</v>
+      </c>
+      <c r="E3834" t="n">
+        <v>66300</v>
+      </c>
+      <c r="F3834" t="n">
+        <v>1761052</v>
+      </c>
+      <c r="G3834" t="n">
+        <v>-2.928257686676428</v>
+      </c>
+    </row>
+    <row r="3835">
+      <c r="A3835" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3835" t="n">
+        <v>66200</v>
+      </c>
+      <c r="C3835" t="n">
+        <v>66900</v>
+      </c>
+      <c r="D3835" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E3835" t="n">
+        <v>66200</v>
+      </c>
+      <c r="F3835" t="n">
+        <v>1368363</v>
+      </c>
+      <c r="G3835" t="n">
+        <v>-0.1508295625942685</v>
+      </c>
+    </row>
+    <row r="3836">
+      <c r="A3836" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3836" t="n">
+        <v>65300</v>
+      </c>
+      <c r="C3836" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D3836" t="n">
+        <v>63600</v>
+      </c>
+      <c r="E3836" t="n">
+        <v>64400</v>
+      </c>
+      <c r="F3836" t="n">
+        <v>1391662</v>
+      </c>
+      <c r="G3836" t="n">
+        <v>-2.719033232628399</v>
+      </c>
+    </row>
+    <row r="3837">
+      <c r="A3837" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3837" t="n">
+        <v>64400</v>
+      </c>
+      <c r="C3837" t="n">
+        <v>65100</v>
+      </c>
+      <c r="D3837" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E3837" t="n">
+        <v>63100</v>
+      </c>
+      <c r="F3837" t="n">
+        <v>1023648</v>
+      </c>
+      <c r="G3837" t="n">
+        <v>-2.018633540372671</v>
+      </c>
+    </row>
+    <row r="3838">
+      <c r="A3838" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3838" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C3838" t="n">
+        <v>64800</v>
+      </c>
+      <c r="D3838" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E3838" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F3838" t="n">
+        <v>1298020</v>
+      </c>
+      <c r="G3838" t="n">
+        <v>1.426307448494453</v>
+      </c>
+    </row>
+    <row r="3839">
+      <c r="A3839" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3839" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C3839" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D3839" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E3839" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F3839" t="n">
+        <v>973239</v>
+      </c>
+      <c r="G3839" t="n">
+        <v>-0.46875</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3840" t="n">
+        <v>65700</v>
+      </c>
+      <c r="C3840" t="n">
+        <v>70200</v>
+      </c>
+      <c r="D3840" t="n">
+        <v>65700</v>
+      </c>
+      <c r="E3840" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F3840" t="n">
+        <v>1586956</v>
+      </c>
+      <c r="G3840" t="n">
+        <v>9.105180533751962</v>
+      </c>
+    </row>
+    <row r="3841">
+      <c r="A3841" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3841" t="n">
+        <v>70500</v>
+      </c>
+      <c r="C3841" t="n">
+        <v>73200</v>
+      </c>
+      <c r="D3841" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E3841" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F3841" t="n">
+        <v>2285085</v>
+      </c>
+      <c r="G3841" t="n">
+        <v>1.007194244604317</v>
+      </c>
+    </row>
+    <row r="3842">
+      <c r="A3842" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3842" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C3842" t="n">
+        <v>71600</v>
+      </c>
+      <c r="D3842" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E3842" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F3842" t="n">
+        <v>997947</v>
+      </c>
+      <c r="G3842" t="n">
+        <v>-1.851851851851852</v>
+      </c>
+    </row>
+    <row r="3843">
+      <c r="A3843" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3843" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C3843" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D3843" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E3843" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F3843" t="n">
+        <v>745906</v>
+      </c>
+      <c r="G3843" t="n">
+        <v>0.5805515239477503</v>
+      </c>
+    </row>
+    <row r="3844">
+      <c r="A3844" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3844" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C3844" t="n">
+        <v>76900</v>
+      </c>
+      <c r="D3844" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E3844" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F3844" t="n">
+        <v>2421484</v>
+      </c>
+      <c r="G3844" t="n">
+        <v>9.668109668109668</v>
+      </c>
+    </row>
+    <row r="3845">
+      <c r="A3845" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3845" t="n">
+        <v>74100</v>
+      </c>
+      <c r="C3845" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D3845" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E3845" t="n">
+        <v>76600</v>
+      </c>
+      <c r="F3845" t="n">
+        <v>1741772</v>
+      </c>
+      <c r="G3845" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+    </row>
+    <row r="3846">
+      <c r="A3846" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3846" t="n">
+        <v>76000</v>
+      </c>
+      <c r="C3846" t="n">
+        <v>76800</v>
+      </c>
+      <c r="D3846" t="n">
+        <v>74200</v>
+      </c>
+      <c r="E3846" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F3846" t="n">
+        <v>1776194</v>
+      </c>
+      <c r="G3846" t="n">
+        <v>-1.305483028720626</v>
+      </c>
+    </row>
+    <row r="3847">
+      <c r="A3847" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3847" t="n">
+        <v>73500</v>
+      </c>
+      <c r="C3847" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D3847" t="n">
+        <v>71900</v>
+      </c>
+      <c r="E3847" t="n">
+        <v>72300</v>
+      </c>
+      <c r="F3847" t="n">
+        <v>1513058</v>
+      </c>
+      <c r="G3847" t="n">
+        <v>-4.365079365079365</v>
+      </c>
+    </row>
+    <row r="3848">
+      <c r="A3848" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3848" t="n">
+        <v>73200</v>
+      </c>
+      <c r="C3848" t="n">
+        <v>75200</v>
+      </c>
+      <c r="D3848" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E3848" t="n">
+        <v>73700</v>
+      </c>
+      <c r="F3848" t="n">
+        <v>934829</v>
+      </c>
+      <c r="G3848" t="n">
+        <v>1.936376210235131</v>
+      </c>
+    </row>
+    <row r="3849">
+      <c r="A3849" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3849" t="n">
+        <v>73200</v>
+      </c>
+      <c r="C3849" t="n">
+        <v>75300</v>
+      </c>
+      <c r="D3849" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E3849" t="n">
+        <v>73900</v>
+      </c>
+      <c r="F3849" t="n">
+        <v>1154827</v>
+      </c>
+      <c r="G3849" t="n">
+        <v>0.271370420624152</v>
+      </c>
+    </row>
+    <row r="3850">
+      <c r="A3850" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3850" t="n">
+        <v>74500</v>
+      </c>
+      <c r="C3850" t="n">
+        <v>77900</v>
+      </c>
+      <c r="D3850" t="n">
+        <v>74300</v>
+      </c>
+      <c r="E3850" t="n">
+        <v>77700</v>
+      </c>
+      <c r="F3850" t="n">
+        <v>1562656</v>
+      </c>
+      <c r="G3850" t="n">
+        <v>5.142083897158322</v>
+      </c>
+    </row>
+    <row r="3851">
+      <c r="A3851" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3851" t="n">
+        <v>76600</v>
+      </c>
+      <c r="C3851" t="n">
+        <v>77800</v>
+      </c>
+      <c r="D3851" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E3851" t="n">
+        <v>76600</v>
+      </c>
+      <c r="F3851" t="n">
+        <v>1476710</v>
+      </c>
+      <c r="G3851" t="n">
+        <v>-1.415701415701416</v>
+      </c>
+    </row>
+    <row r="3852">
+      <c r="A3852" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3852" t="n">
+        <v>77500</v>
+      </c>
+      <c r="C3852" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D3852" t="n">
+        <v>76700</v>
+      </c>
+      <c r="E3852" t="n">
+        <v>79300</v>
+      </c>
+      <c r="F3852" t="n">
+        <v>1559192</v>
+      </c>
+      <c r="G3852" t="n">
+        <v>3.524804177545692</v>
+      </c>
+    </row>
+    <row r="3853">
+      <c r="A3853" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3853" t="n">
+        <v>79900</v>
+      </c>
+      <c r="C3853" t="n">
+        <v>83300</v>
+      </c>
+      <c r="D3853" t="n">
+        <v>79900</v>
+      </c>
+      <c r="E3853" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F3853" t="n">
+        <v>1874188</v>
+      </c>
+      <c r="G3853" t="n">
+        <v>2.900378310214376</v>
+      </c>
+    </row>
+    <row r="3854">
+      <c r="A3854" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3854" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C3854" t="n">
+        <v>80700</v>
+      </c>
+      <c r="D3854" t="n">
+        <v>78300</v>
+      </c>
+      <c r="E3854" t="n">
+        <v>79600</v>
+      </c>
+      <c r="F3854" t="n">
+        <v>1337168</v>
+      </c>
+      <c r="G3854" t="n">
+        <v>-2.450980392156863</v>
+      </c>
+    </row>
+    <row r="3855">
+      <c r="A3855" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3855" t="n">
+        <v>77500</v>
+      </c>
+      <c r="C3855" t="n">
+        <v>83300</v>
+      </c>
+      <c r="D3855" t="n">
+        <v>77500</v>
+      </c>
+      <c r="E3855" t="n">
+        <v>81000</v>
+      </c>
+      <c r="F3855" t="n">
+        <v>2083221</v>
+      </c>
+      <c r="G3855" t="n">
+        <v>1.758793969849246</v>
+      </c>
+    </row>
+    <row r="3856">
+      <c r="A3856" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3856" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C3856" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D3856" t="n">
+        <v>79500</v>
+      </c>
+      <c r="E3856" t="n">
+        <v>80100</v>
+      </c>
+      <c r="F3856" t="n">
+        <v>1221504</v>
+      </c>
+      <c r="G3856" t="n">
+        <v>-1.111111111111111</v>
+      </c>
+    </row>
+    <row r="3857">
+      <c r="A3857" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3857" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C3857" t="n">
+        <v>83400</v>
+      </c>
+      <c r="D3857" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E3857" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F3857" t="n">
+        <v>1065223</v>
+      </c>
+      <c r="G3857" t="n">
+        <v>1.872659176029963</v>
+      </c>
+    </row>
+    <row r="3858">
+      <c r="A3858" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3858" t="n">
+        <v>80500</v>
+      </c>
+      <c r="C3858" t="n">
+        <v>82400</v>
+      </c>
+      <c r="D3858" t="n">
+        <v>80400</v>
+      </c>
+      <c r="E3858" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F3858" t="n">
+        <v>714976</v>
+      </c>
+      <c r="G3858" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
